--- a/results/mp/deberta/corona/confidence/168/stop-words-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="115">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,109 +55,109 @@
     <t>panic</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>ready</t>
   </si>
   <si>
     <t>hope</t>
@@ -724,10 +724,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -806,7 +806,7 @@
         <v>13</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -856,7 +856,7 @@
         <v>158</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -906,7 +906,7 @@
         <v>21</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -956,7 +956,7 @@
         <v>58</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K6">
         <v>0.9444444444444444</v>
@@ -1006,7 +1006,7 @@
         <v>468</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K7">
         <v>0.9333333333333333</v>
@@ -1031,32 +1031,8 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.07784431137724551</v>
-      </c>
-      <c r="C8">
-        <v>13</v>
-      </c>
-      <c r="D8">
-        <v>186</v>
-      </c>
-      <c r="E8">
-        <v>0.93</v>
-      </c>
-      <c r="F8">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>154</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K8">
         <v>0.9166666666666666</v>
@@ -1082,7 +1058,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K9">
         <v>0.8846153846153846</v>
@@ -1108,7 +1084,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K10">
         <v>0.8813559322033898</v>
@@ -1134,7 +1110,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K11">
         <v>0.8666666666666667</v>
@@ -1160,7 +1136,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K12">
         <v>0.8547008547008547</v>
@@ -1186,7 +1162,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K13">
         <v>0.8454545454545455</v>
@@ -1212,7 +1188,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K14">
         <v>0.8267716535433071</v>
@@ -1238,7 +1214,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K15">
         <v>0.825</v>
@@ -1264,7 +1240,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K16">
         <v>0.8181818181818182</v>
@@ -1290,7 +1266,7 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K17">
         <v>0.8076923076923077</v>
@@ -1316,7 +1292,7 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K18">
         <v>0.8</v>
@@ -1342,7 +1318,7 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K19">
         <v>0.7941176470588235</v>
@@ -1368,7 +1344,7 @@
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K20">
         <v>0.740506329113924</v>
@@ -1394,7 +1370,7 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K21">
         <v>0.7301587301587301</v>
@@ -1420,7 +1396,7 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K22">
         <v>0.7192982456140351</v>
@@ -1446,7 +1422,7 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K23">
         <v>0.6785714285714286</v>
@@ -1472,7 +1448,7 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K24">
         <v>0.6666666666666666</v>
@@ -1498,7 +1474,7 @@
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K25">
         <v>0.6666666666666666</v>
@@ -1524,7 +1500,7 @@
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K26">
         <v>0.6633663366336634</v>
@@ -1550,16 +1526,16 @@
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K27">
-        <v>0.6565217391304348</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L27">
-        <v>151</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="N27">
         <v>0.9399999999999999</v>
@@ -1571,47 +1547,47 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>0.6521739130434783</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L28">
         <v>30</v>
       </c>
       <c r="M28">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N28">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K29">
-        <v>0.6382978723404256</v>
+        <v>0.6317991631799164</v>
       </c>
       <c r="L29">
-        <v>30</v>
+        <v>151</v>
       </c>
       <c r="M29">
-        <v>30</v>
+        <v>151</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1623,12 +1599,12 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>17</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K30">
         <v>0.6222222222222222</v>
@@ -1654,7 +1630,7 @@
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K31">
         <v>0.5686274509803921</v>
@@ -1680,7 +1656,7 @@
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K32">
         <v>0.5652173913043478</v>
@@ -1706,28 +1682,28 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K33">
-        <v>0.5290519877675841</v>
+        <v>0.52</v>
       </c>
       <c r="L33">
-        <v>173</v>
+        <v>26</v>
       </c>
       <c r="M33">
-        <v>186</v>
+        <v>26</v>
       </c>
       <c r="N33">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>154</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1735,13 +1711,13 @@
         <v>45</v>
       </c>
       <c r="K34">
-        <v>0.52</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L34">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M34">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1753,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1767,16 +1743,16 @@
         <v>14</v>
       </c>
       <c r="M35">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
         <v>13</v>
@@ -1787,25 +1763,25 @@
         <v>47</v>
       </c>
       <c r="K36">
-        <v>0.5185185185185185</v>
+        <v>0.5088235294117647</v>
       </c>
       <c r="L36">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="M36">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="N36">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>13</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="10:17">
